--- a/data/trans_dic/P0901-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1268813776802996</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2587808934245731</v>
+        <v>0.2587808934245732</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2343705946181376</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1474865960131433</v>
+        <v>0.147517430947097</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1120643770182258</v>
+        <v>0.1106025010264265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1087786066992155</v>
+        <v>0.1069872623719852</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2217148019904365</v>
+        <v>0.216855976433719</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2068516556817408</v>
+        <v>0.2066537030089844</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2195070614009364</v>
+        <v>0.2229006846575146</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2065796340028065</v>
+        <v>0.2069696877139919</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2956471541118449</v>
+        <v>0.3011915464282443</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1915563592097653</v>
+        <v>0.190829283166677</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1744369395628196</v>
+        <v>0.174903752691586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.16792681358972</v>
+        <v>0.1682499442638966</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2740813689364385</v>
+        <v>0.2728949571521368</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2101070850578279</v>
+        <v>0.2120033637064446</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1561301837599772</v>
+        <v>0.1545108351617707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1470002535196036</v>
+        <v>0.1470944383021332</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3015890108965052</v>
+        <v>0.302531975732737</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2637413634009583</v>
+        <v>0.2633557743214404</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2723035473447509</v>
+        <v>0.2763993251358735</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.257791131995623</v>
+        <v>0.2570727024234619</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3640337817869909</v>
+        <v>0.3695366172407947</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2349413786236674</v>
+        <v>0.2345181092491665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2076569564569506</v>
+        <v>0.2103737703003854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2001364247165884</v>
+        <v>0.200178613616551</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3257215286712659</v>
+        <v>0.3282696131328542</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06983417945318625</v>
+        <v>0.06840487631361354</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09972657998356571</v>
+        <v>0.09956284664424632</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07930057253668732</v>
+        <v>0.07900199167428612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1272990244029824</v>
+        <v>0.1259612506791231</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1270663094641209</v>
+        <v>0.1254219460095124</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1898901016537691</v>
+        <v>0.1911396941701759</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1545364231044585</v>
+        <v>0.1576891927611321</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2191022126820473</v>
+        <v>0.2184617055776503</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1015824090399337</v>
+        <v>0.1025647667181549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1538349970733353</v>
+        <v>0.1549573110059059</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1259241455336833</v>
+        <v>0.1246466193152245</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1818307163390873</v>
+        <v>0.1812945240856183</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1026780230628491</v>
+        <v>0.1026126425783265</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1437403140050066</v>
+        <v>0.1427387841364718</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1208985765384006</v>
+        <v>0.1190805903596351</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1744090217945968</v>
+        <v>0.1705990683117737</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1701740939838113</v>
+        <v>0.1690699403444867</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2436801617967699</v>
+        <v>0.2408596613643939</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2074865120297291</v>
+        <v>0.2094536681376049</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2606663501171758</v>
+        <v>0.2602849720669933</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1289906644259901</v>
+        <v>0.1285684380223529</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1882623922119615</v>
+        <v>0.1867740040821309</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1595585188221688</v>
+        <v>0.1581646374818847</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2120566869628776</v>
+        <v>0.2134267197046742</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07604650862632714</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09241620157926116</v>
+        <v>0.09241620157926117</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1294053493250705</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04598165054085468</v>
+        <v>0.0448514417207238</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09692261361122026</v>
+        <v>0.09758832716830675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05815473341306655</v>
+        <v>0.05988603043692478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07689567526581109</v>
+        <v>0.0744277443982823</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1093745852077041</v>
+        <v>0.1089505581036878</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1514830462250044</v>
+        <v>0.1495362110413933</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1529009722104298</v>
+        <v>0.1496553790102213</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1381805206471489</v>
+        <v>0.1383646961662653</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0806421166814785</v>
+        <v>0.08014820525876198</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1305966646629216</v>
+        <v>0.1308820412365332</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1099819969336658</v>
+        <v>0.1098835411312823</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1115155112492908</v>
+        <v>0.1103792183614525</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07367459237015521</v>
+        <v>0.07509265951826366</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1402383993643528</v>
+        <v>0.1428228090115383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09769095252773752</v>
+        <v>0.0955926909447128</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1137333020384211</v>
+        <v>0.1111518948837196</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1520598220772175</v>
+        <v>0.1520908246025847</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2044443929489026</v>
+        <v>0.2042536728061073</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2091509084909324</v>
+        <v>0.2106428781780984</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1734751375811906</v>
+        <v>0.1743468322011269</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1047938497367981</v>
+        <v>0.1050814216581437</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1654836498380714</v>
+        <v>0.1648405222189536</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.144113745164648</v>
+        <v>0.1470840231804023</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1383787959358915</v>
+        <v>0.1359105072070357</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03690249681130865</v>
+        <v>0.03564808228231128</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07374108715454385</v>
+        <v>0.07187629350645784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07971109998076893</v>
+        <v>0.08133115119183285</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09007717915636697</v>
+        <v>0.09242992333061437</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07273282816808534</v>
+        <v>0.07455772311373648</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1201028790864264</v>
+        <v>0.1203708479003531</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1142423267251221</v>
+        <v>0.1154691001251157</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1225910276569254</v>
+        <v>0.1230136780337544</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05956586069578055</v>
+        <v>0.0599357298874941</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1039698643934811</v>
+        <v>0.1033071241856019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1041537931967461</v>
+        <v>0.1041702143101603</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1124450782202532</v>
+        <v>0.113039697038199</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08365866906887931</v>
+        <v>0.07970404407901528</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1323901435045312</v>
+        <v>0.1305190839503093</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1401559022091789</v>
+        <v>0.1389763686438563</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.133907039733378</v>
+        <v>0.1362699750375646</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1424789928751496</v>
+        <v>0.1440026737179902</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1929265209979128</v>
+        <v>0.1902424250103465</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1843192277991637</v>
+        <v>0.1864347321335866</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1614952909936501</v>
+        <v>0.1617437981529971</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0968749728524563</v>
+        <v>0.09877010495429173</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1462888481404972</v>
+        <v>0.1474291656463725</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1503548596904937</v>
+        <v>0.1483992728512886</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1402719042084336</v>
+        <v>0.1428912370131747</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.103621919184655</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1368236620095021</v>
+        <v>0.136823662009502</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.161518485972962</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0782952555510114</v>
+        <v>0.07849682295752559</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1087444821391791</v>
+        <v>0.1080152653457739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09279918354384417</v>
+        <v>0.09335268758337766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1242984747878103</v>
+        <v>0.1262273012395736</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1488811543601801</v>
+        <v>0.1488999202584944</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1942747754895545</v>
+        <v>0.1952487445128282</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1804980037242627</v>
+        <v>0.1810534055919967</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.195612520428751</v>
+        <v>0.1967917650114206</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1178290404517113</v>
+        <v>0.1181953930788966</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1551613901558374</v>
+        <v>0.1554239376110457</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1406437970497426</v>
+        <v>0.1411615081558483</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1642603564246217</v>
+        <v>0.1649271198565682</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0980388982734389</v>
+        <v>0.09740231256246754</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1319013382439121</v>
+        <v>0.1314471024573543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1137341703766753</v>
+        <v>0.1152333822691988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1481796142267658</v>
+        <v>0.1499522975965826</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1756196165774945</v>
+        <v>0.1749258952393358</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2216197599774923</v>
+        <v>0.2244636508269125</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2100453777811891</v>
+        <v>0.2086436115564922</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2193512647920055</v>
+        <v>0.2185742371815656</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1346259028261751</v>
+        <v>0.1343890717260644</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1738828625878225</v>
+        <v>0.1740714426549174</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1596630015640299</v>
+        <v>0.1588578779162708</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1806790730708872</v>
+        <v>0.1814292855814902</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>86153</v>
+        <v>86171</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>116988</v>
+        <v>115462</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>122702</v>
+        <v>120681</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>110333</v>
+        <v>107915</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>190786</v>
+        <v>190604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>245832</v>
+        <v>249633</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>260200</v>
+        <v>260691</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>184169</v>
+        <v>187623</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>288575</v>
+        <v>287479</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>377458</v>
+        <v>378468</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>400935</v>
+        <v>401707</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>307128</v>
+        <v>305798</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>122732</v>
+        <v>123840</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>162990</v>
+        <v>161299</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>165816</v>
+        <v>165922</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>150081</v>
+        <v>150550</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>243257</v>
+        <v>242902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>304960</v>
+        <v>309547</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>324704</v>
+        <v>323799</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>226770</v>
+        <v>230198</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>353933</v>
+        <v>353295</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>449341</v>
+        <v>455220</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>477837</v>
+        <v>477938</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>364994</v>
+        <v>367850</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>75274</v>
+        <v>73733</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>97440</v>
+        <v>97280</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>72070</v>
+        <v>71799</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>122225</v>
+        <v>120940</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>134377</v>
+        <v>132638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>207790</v>
+        <v>209157</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>155537</v>
+        <v>158710</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>244485</v>
+        <v>243770</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>216922</v>
+        <v>219020</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>318644</v>
+        <v>320969</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>241183</v>
+        <v>238736</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>377478</v>
+        <v>376365</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>110676</v>
+        <v>110606</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>140445</v>
+        <v>139466</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>109876</v>
+        <v>108223</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>167457</v>
+        <v>163798</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>179966</v>
+        <v>178798</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>266650</v>
+        <v>263564</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>208830</v>
+        <v>210810</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>290864</v>
+        <v>290439</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>275451</v>
+        <v>274549</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>389954</v>
+        <v>386872</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>305602</v>
+        <v>302933</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>440227</v>
+        <v>443071</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>51573</v>
+        <v>50305</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>85788</v>
+        <v>86377</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>47905</v>
+        <v>49332</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>80470</v>
+        <v>77887</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108712</v>
+        <v>108290</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>132668</v>
+        <v>130963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>117896</v>
+        <v>115393</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>144764</v>
+        <v>144957</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>170601</v>
+        <v>169556</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>229969</v>
+        <v>230472</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>175401</v>
+        <v>175244</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>233527</v>
+        <v>231147</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>82633</v>
+        <v>84223</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>124127</v>
+        <v>126415</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80474</v>
+        <v>78745</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>119020</v>
+        <v>116318</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>151138</v>
+        <v>151169</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>179052</v>
+        <v>178885</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>161268</v>
+        <v>162418</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>181740</v>
+        <v>182653</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>221695</v>
+        <v>222303</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>291402</v>
+        <v>290269</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>229835</v>
+        <v>234572</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>289782</v>
+        <v>284613</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16503</v>
+        <v>15942</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>37093</v>
+        <v>36155</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40390</v>
+        <v>41211</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>87812</v>
+        <v>90105</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24813</v>
+        <v>25436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>54375</v>
+        <v>54496</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>55944</v>
+        <v>56545</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>111263</v>
+        <v>111647</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>46959</v>
+        <v>47251</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>99370</v>
+        <v>98737</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>103779</v>
+        <v>103795</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>211672</v>
+        <v>212791</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37412</v>
+        <v>35644</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>66595</v>
+        <v>65654</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71017</v>
+        <v>70419</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>130539</v>
+        <v>132843</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48608</v>
+        <v>49128</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>87345</v>
+        <v>86130</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>90261</v>
+        <v>91297</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>146573</v>
+        <v>146798</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76372</v>
+        <v>77866</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>139817</v>
+        <v>140907</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>149813</v>
+        <v>147865</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>264055</v>
+        <v>268985</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>252959</v>
+        <v>253610</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>370726</v>
+        <v>368240</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>312481</v>
+        <v>314345</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>432447</v>
+        <v>439158</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>493536</v>
+        <v>493599</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>688262</v>
+        <v>691712</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>636579</v>
+        <v>638538</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>722597</v>
+        <v>726954</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>771285</v>
+        <v>773683</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1078661</v>
+        <v>1080487</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>969609</v>
+        <v>973178</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1178260</v>
+        <v>1183043</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>316747</v>
+        <v>314690</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>449671</v>
+        <v>448122</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>382975</v>
+        <v>388023</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>515532</v>
+        <v>521699</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>582174</v>
+        <v>579874</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>785137</v>
+        <v>795212</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>740786</v>
+        <v>735843</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>810289</v>
+        <v>807418</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>881234</v>
+        <v>879684</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1208811</v>
+        <v>1210122</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1100729</v>
+        <v>1095178</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1296034</v>
+        <v>1301415</v>
       </c>
     </row>
     <row r="24">
